--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/y.r./Desktop/Development/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4103D72C-A0EE-8449-B30D-B183FF99078C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CAF230-275D-5643-AF69-F329617E334C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="500" windowWidth="28300" windowHeight="16640" xr2:uid="{F79951A8-F1FF-AE44-A115-4A385093FFA8}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
